--- a/05-Practica01.xlsx
+++ b/05-Practica01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18EC15E-2C85-4D2F-BFEA-3DA80A16DDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B379D-E9A2-4D8C-8B85-CE12DEEC70A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{57676102-2003-44F4-972F-84C79A0C4107}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{57676102-2003-44F4-972F-84C79A0C4107}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -229,12 +229,6 @@
     <font>
       <sz val="8"/>
       <name val="Victor Mono Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -352,7 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -363,15 +357,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Énfasis6" xfId="2" builtinId="50"/>
@@ -729,7 +721,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -747,21 +739,21 @@
     <col min="12" max="12" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -802,150 +794,150 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>64848</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>250000</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>23006</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>160000</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>42880</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>230000</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>23456</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>140000</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>23432</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>200000</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>7558</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>190000</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>14585</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>220000</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="9"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G13" s="9"/>
+      <c r="G13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
